--- a/Data.xlsx
+++ b/Data.xlsx
@@ -143,12 +143,12 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -367,8 +367,12 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -385,8 +389,12 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">For Same Lambda</t>
   </si>
@@ -36,6 +36,18 @@
   <si>
     <t xml:space="preserve">[0.71003388+0.j 0.70416751+0.j]</t>
   </si>
+  <si>
+    <t xml:space="preserve">[1.+0.j 0.+0.j] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.+0.j 1.+0.j] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.71003388+0.j -0.70416751+0.j] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.44517647+0.j -0.89544286+0.j]</t>
+  </si>
 </sst>
 </file>
 
@@ -44,7 +56,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -66,6 +78,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,7 +128,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -121,6 +139,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -140,10 +170,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -374,7 +404,9 @@
         <v>0</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -447,10 +479,16 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -465,8 +503,12 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>-1</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -519,10 +561,16 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -537,10 +585,14 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -558,7 +610,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -576,7 +628,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -591,10 +643,16 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -609,10 +667,14 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -630,7 +692,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -648,7 +710,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -666,7 +728,7 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -684,7 +746,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -702,7 +764,7 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -720,7 +782,7 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -738,7 +800,7 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -756,7 +818,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -774,7 +836,7 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -786,6 +848,381 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E93" s="5"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E99" s="5"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E100" s="5"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E101" s="5"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E102" s="5"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E103" s="5"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E104" s="5"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E105" s="5"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E106" s="5"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E107" s="5"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E108" s="5"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E109" s="5"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E110" s="5"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E113" s="5"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E116" s="5"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E117" s="5"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E118" s="5"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E119" s="5"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E120" s="5"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E122" s="5"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E123" s="5"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E124" s="5"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E125" s="5"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E126" s="5"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E127" s="5"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E128" s="5"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E129" s="5"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E130" s="5"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E131" s="5"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E132" s="5"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E133" s="5"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E134" s="5"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E135" s="5"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E136" s="5"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E137" s="5"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E138" s="5"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E139" s="5"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E140" s="5"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E141" s="5"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E142" s="5"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E143" s="5"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E144" s="5"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E145" s="5"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E146" s="5"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E147" s="5"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E148" s="5"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E149" s="5"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E150" s="5"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E151" s="5"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E152" s="5"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E153" s="5"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E154" s="5"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E155" s="5"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E156" s="5"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E157" s="5"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E158" s="5"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E159" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t xml:space="preserve">For Same Lambda</t>
   </si>
@@ -48,6 +48,15 @@
   <si>
     <t xml:space="preserve">[ 0.44517647+0.j -0.89544286+0.j]</t>
   </si>
+  <si>
+    <t xml:space="preserve">[ 0.9319494 +0.j -0.36258835+0.j] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamiltonian is not Hermitian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamiltonian is not Hermitian </t>
+  </si>
 </sst>
 </file>
 
@@ -56,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -84,6 +93,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,7 +144,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -153,6 +169,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,6 +182,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -172,8 +252,8 @@
   </sheetPr>
   <dimension ref="A1:P159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -725,10 +805,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -743,8 +829,12 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5"/>
       <c r="F29" s="2"/>
@@ -797,10 +887,16 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -815,10 +911,14 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -836,7 +936,7 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -850,73 +950,189 @@
       <c r="P34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="5"/>
+      <c r="B35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="5"/>
+      <c r="B36" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="5"/>
+      <c r="B39" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="5"/>
+      <c r="B40" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="5"/>
+      <c r="B43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="E44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="5"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="5"/>
+      <c r="B47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E48" s="5"/>
+      <c r="B48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="5"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="5"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="5"/>
+      <c r="B51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="5"/>
+      <c r="B52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="5"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E54" s="5"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="5"/>
+      <c r="B55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="5"/>
+      <c r="B56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="5"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="5"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t xml:space="preserve">For Same Lambda</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t xml:space="preserve">Hamiltonian is not Hermitian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Hermitian c = b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermitian </t>
   </si>
 </sst>
 </file>
@@ -252,8 +270,8 @@
   </sheetPr>
   <dimension ref="A1:P159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G58" activeCellId="0" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1135,25 +1153,73 @@
       <c r="E57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E58" s="5"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E59" s="5"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E60" s="5"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E61" s="5"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E62" s="5"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="5"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E64" s="5"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="5"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t xml:space="preserve">For Same Lambda</t>
   </si>
@@ -74,6 +74,24 @@
   </si>
   <si>
     <t xml:space="preserve">Hermitian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.31527491+0.j -0.94900038+0.j] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.95147748+0.j -0.3077184 +0.j] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">√3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.4876735 +0.j -0.87302609+0.j] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">√3-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.50023602+0.j -0.8658891 +0.j] </t>
   </si>
 </sst>
 </file>
@@ -83,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -118,6 +136,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,7 +193,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -188,6 +219,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -268,10 +307,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P159"/>
+  <dimension ref="A1:P164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G58" activeCellId="0" sqref="G58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H97" activeCellId="0" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1225,100 +1264,293 @@
       <c r="E65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="5"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="5"/>
+      <c r="B67" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E68" s="5"/>
+      <c r="B68" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="5"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="5"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="5"/>
+      <c r="B71" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="5"/>
+      <c r="B72" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="5"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="5"/>
+      <c r="B75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="5"/>
+      <c r="B76" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="5"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E78" s="5"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E79" s="5"/>
+      <c r="B79" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="5"/>
+      <c r="B80" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="5"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="5"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="5"/>
+      <c r="B83" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="5"/>
+      <c r="B84" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="5"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="5"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="5"/>
+      <c r="B87" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="5"/>
+      <c r="B88" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="5"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="5"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="5"/>
+      <c r="B91" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="5"/>
+      <c r="B92" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="5"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="5"/>
+      <c r="A95" s="2"/>
+      <c r="B95" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="5"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="5"/>
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="5"/>
@@ -1505,6 +1737,21 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="5"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E160" s="5"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E161" s="5"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E162" s="5"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E163" s="5"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E164" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
   <si>
     <t xml:space="preserve">For Same Lambda</t>
   </si>
@@ -28,27 +28,57 @@
     <t xml:space="preserve">Lambda = -1</t>
   </si>
   <si>
-    <t xml:space="preserve">o</t>
-  </si>
-  <si>
     <t xml:space="preserve">[ 0.6989808 +0.j -0.71514044+0.j]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.54030231+0.j </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.        +0.84147098j </t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.71003388+0.j 0.70416751+0.j]</t>
   </si>
   <si>
+    <t xml:space="preserve">0.        -0.84147098j </t>
+  </si>
+  <si>
     <t xml:space="preserve">[1.+0.j 0.+0.j] </t>
   </si>
   <si>
+    <t xml:space="preserve">0.54030231-0.84147098j </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.        +0.j       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54030231+0.84147098j </t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.+0.j 1.+0.j] </t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.71003388+0.j -0.70416751+0.j] </t>
   </si>
   <si>
+    <t xml:space="preserve">-0.2248451-0.35017549j </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.7651474+0.4912955j </t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.44517647+0.j -0.89544286+0.j]</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.41485444-0.77373619j </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.47757837+0.0338674j </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30151312-0.82453729j </t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.9319494 +0.j -0.36258835+0.j] </t>
   </si>
   <si>
@@ -76,22 +106,85 @@
     <t xml:space="preserve">Hermitian </t>
   </si>
   <si>
+    <t xml:space="preserve">0.41198225-0.90019763j </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.12832006-0.05872664j </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41198225-0.90019763j</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.31527491+0.j -0.94900038+0.j] </t>
   </si>
   <si>
+    <t xml:space="preserve">-0.76598701+0.28675954j </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.43542977+0.37607684j </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39515905-0.71611204j </t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.95147748+0.j -0.3077184 +0.j] </t>
   </si>
   <si>
+    <t xml:space="preserve">0.39515905+0.71611204j </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.43542977+0.37607684j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.76598701-0.28675954j </t>
+  </si>
+  <si>
     <t xml:space="preserve">√3</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.4876735 +0.j -0.87302609+0.j] </t>
   </si>
   <si>
+    <t xml:space="preserve">-0.6074188 -0.10452774j </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.66263709+0.42547438j </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15772861-0.59582324j </t>
+  </si>
+  <si>
     <t xml:space="preserve">√3-1</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.11942279-0.10731542j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.6597251 +0.73415557j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06207773+0.03391322j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.47822457+0.87538421j</t>
+  </si>
+  <si>
     <t xml:space="preserve">[ 0.50023602+0.j -0.8658891 +0.j] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.26864257+0.27975191j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.53929658+0.74748193j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18077125-0.3431497j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77015115-0.42073549j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22984885+0.42073549j</t>
   </si>
 </sst>
 </file>
@@ -193,7 +286,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,6 +309,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -309,13 +406,14 @@
   </sheetPr>
   <dimension ref="A1:P164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H97" activeCellId="0" sqref="H97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H45" activeCellId="0" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="26.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,19 +468,23 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
+      <c r="B4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -403,8 +505,12 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -460,11 +566,15 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -485,8 +595,12 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -542,11 +656,15 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -567,8 +685,12 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -624,11 +746,15 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -649,8 +775,12 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -706,11 +836,15 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -731,8 +865,12 @@
       <c r="D21" s="2"/>
       <c r="E21" s="5"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -788,11 +926,15 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -813,8 +955,12 @@
       <c r="D25" s="2"/>
       <c r="E25" s="5"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="G25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -870,11 +1016,15 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -895,8 +1045,12 @@
       <c r="D29" s="2"/>
       <c r="E29" s="5"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -952,7 +1106,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1007,93 +1161,117 @@
       <c r="P34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="6" t="n">
+      <c r="B35" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C35" s="6" t="n">
+      <c r="C35" s="7" t="n">
         <v>3</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="6" t="n">
+      <c r="B36" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="6" t="n">
+      <c r="C36" s="7" t="n">
         <v>2</v>
       </c>
       <c r="E36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
       <c r="E37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
       <c r="E38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="6" t="n">
+      <c r="B39" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C39" s="6" t="n">
+      <c r="C39" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="6" t="n">
+      <c r="B40" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C40" s="6" t="n">
+      <c r="C40" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
       <c r="E41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
       <c r="E42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="6" t="n">
+      <c r="B43" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C43" s="6" t="n">
+      <c r="C43" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="6" t="n">
+      <c r="B44" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C44" s="6" t="n">
+      <c r="C44" s="7" t="n">
         <v>2</v>
       </c>
       <c r="E44" s="5"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="5"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="2" t="n">
@@ -1104,8 +1282,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="2" t="n">
@@ -1116,18 +1296,24 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="2" t="n">
@@ -1138,8 +1324,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="2" t="n">
@@ -1150,18 +1338,24 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="2" t="n">
@@ -1172,8 +1366,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="2" t="n">
@@ -1184,12 +1380,16 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
@@ -1197,30 +1397,36 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
@@ -1228,6 +1434,8 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
@@ -1235,39 +1443,49 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="5"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="2" t="n">
@@ -1278,7 +1496,13 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,18 +1514,28 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
+      <c r="G68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="2" t="n">
@@ -1312,7 +1546,13 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1324,9 +1564,17 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
+      <c r="G72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="5"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="2"/>
@@ -1334,6 +1582,8 @@
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="2" t="n">
@@ -1344,9 +1594,15 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F75" s="2"/>
+      <c r="G75" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="2" t="n">
@@ -1358,6 +1614,12 @@
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
+      <c r="G76" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="2"/>
@@ -1365,6 +1627,8 @@
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="2"/>
@@ -1372,23 +1636,31 @@
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>20</v>
+      <c r="C79" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F79" s="2"/>
+      <c r="G79" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="8" t="s">
-        <v>20</v>
+      <c r="B80" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>0</v>
@@ -1396,13 +1668,21 @@
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
+      <c r="G80" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="8"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="2"/>
@@ -1410,30 +1690,44 @@
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>20</v>
+      <c r="B83" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F83" s="2"/>
+      <c r="G83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>22</v>
+      <c r="B84" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
+      <c r="G84" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="2"/>
@@ -1441,6 +1735,8 @@
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="2"/>
@@ -1448,6 +1744,8 @@
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="2" t="n">
@@ -1458,9 +1756,15 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F87" s="2"/>
+      <c r="G87" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="2" t="n">
@@ -1472,6 +1776,12 @@
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
+      <c r="G88" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="2"/>
@@ -1479,6 +1789,8 @@
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="2"/>
@@ -1486,6 +1798,8 @@
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="2" t="n">
@@ -1496,9 +1810,15 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F91" s="2"/>
+      <c r="G91" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="n">
@@ -1510,6 +1830,12 @@
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
+      <c r="G92" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="2"/>
@@ -1517,9 +1843,13 @@
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="5"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
@@ -1531,7 +1861,13 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,6 +1880,12 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
+      <c r="G96" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
@@ -1551,42 +1893,68 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="5"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="5"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="5"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="5"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="5"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="5"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="5"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="5"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="5"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="5"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="5"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="5"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="5"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -20,12 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="60">
   <si>
     <t xml:space="preserve">For Same Lambda</t>
   </si>
   <si>
     <t xml:space="preserve">Lambda = -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamelton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eigen Vector </t>
+  </si>
+  <si>
+    <t xml:space="preserve">e^iH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting State </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial State</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.6989808 +0.j -0.71514044+0.j]</t>
@@ -404,16 +419,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P164"/>
+  <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H45" activeCellId="0" sqref="H45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="26.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -447,6 +465,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
@@ -465,52 +484,46 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="L4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -519,62 +532,81 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>-1</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -583,24 +615,17 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -609,62 +634,81 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>-1</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
-      <c r="B12" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -673,24 +717,17 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
-      <c r="B13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -699,62 +736,81 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="L14" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
-      <c r="B16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -763,24 +819,17 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>-1</v>
-      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -789,62 +838,81 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="L18" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>-1</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="L19" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
-      <c r="B20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -853,24 +921,17 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
-      <c r="B21" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -879,62 +940,81 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="L23" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
-      <c r="B24" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -943,24 +1023,17 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
-      <c r="B25" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="5"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -969,62 +1042,81 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="J27" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="L27" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
-      <c r="B28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="E28" s="5"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1033,24 +1125,17 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
-      <c r="B29" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>3</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="5"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1059,55 +1144,78 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="L30" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="G31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="J31" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="L31" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
-      <c r="B32" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>3</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E32" s="5"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1119,17 +1227,14 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
-      <c r="B33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1141,13 +1246,20 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1159,750 +1271,941 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="7" t="n">
-        <v>2</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="E37" s="2"/>
+      <c r="B37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
+      <c r="L37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="B38" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
+      <c r="L38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C39" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="E39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
+      <c r="L39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C40" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
       <c r="E40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
+      <c r="L40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="E41" s="2"/>
+      <c r="B41" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
+      <c r="L41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
+      <c r="B42" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
+      <c r="L42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="E43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
+      <c r="L43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C44" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E44" s="5"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="E44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
+      <c r="L44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="5"/>
+      <c r="B45" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
+      <c r="L45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="B46" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" s="5"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
+      <c r="L46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="E47" s="5"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
+      <c r="L47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>-2</v>
-      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
+      <c r="L48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="B49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>-1</v>
+      </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
+      <c r="L49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="B50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>-2</v>
+      </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
+      <c r="L50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="E51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
+      <c r="L51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
+      <c r="L52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="B53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
+      <c r="L53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="B54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
+      <c r="L54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="E55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
+      <c r="L55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
+      <c r="L56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="B57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>1.5</v>
+      </c>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
+      <c r="L57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="B58" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
+      <c r="L58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
+      <c r="L59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
+      <c r="L60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
+      <c r="L61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
+      <c r="L62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
-      <c r="B63" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="E63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
+      <c r="L63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
-      <c r="B64" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
+      <c r="L64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E65" s="5"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
+      <c r="L65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
+      <c r="L66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="E67" s="5"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="L67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C68" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="G68" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="L68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="B69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="E69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2"/>
+      <c r="L69" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="B70" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="G70" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2"/>
+      <c r="L70" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C71" s="2" t="n">
-        <v>3</v>
-      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="E71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="L71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C72" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="G72" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="L72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E73" s="5"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="B73" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2"/>
+      <c r="L73" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="B74" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="G74" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2"/>
+      <c r="L74" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="E75" s="5"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="L75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C76" s="2" t="n">
-        <v>8</v>
-      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="L76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="B77" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="E77" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="G77" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" s="2"/>
+      <c r="L77" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="B78" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>8</v>
+      </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="G78" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2"/>
+      <c r="L78" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="E79" s="2"/>
       <c r="F79" s="2"/>
-      <c r="G79" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="L79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C80" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="L80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="9"/>
-      <c r="C81" s="2"/>
+      <c r="B81" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="E81" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="G81" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" s="2"/>
+      <c r="L81" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+      <c r="B82" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="G82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2"/>
+      <c r="L82" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="B83" s="9"/>
+      <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="L83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="L84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="B85" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="E85" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="G85" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" s="2"/>
+      <c r="L85" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="B86" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="G86" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2"/>
+      <c r="L86" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E87" s="2"/>
       <c r="F87" s="2"/>
-      <c r="G87" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="L87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C88" s="2" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
-      <c r="G88" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="L88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="B89" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>1.5</v>
+      </c>
       <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="E89" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
+      <c r="G89" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" s="2"/>
+      <c r="L89" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+      <c r="B90" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>0.5</v>
+      </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+      <c r="G90" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2"/>
+      <c r="L90" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="C91" s="2" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="E91" s="2"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="L91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C92" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="L92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="B93" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>1.5</v>
+      </c>
       <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
+      <c r="E93" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+      <c r="G93" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" s="2"/>
+      <c r="L93" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="5"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
+      <c r="B94" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J94" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" s="2"/>
+      <c r="L94" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="C95" s="2" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="L95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C96" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="G96" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="E96" s="5"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="L96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="B97" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>0.5</v>
+      </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
+      <c r="E97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J97" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" s="2"/>
+      <c r="L97" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="5"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
+      <c r="A98" s="2"/>
+      <c r="B98" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="G98" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J98" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" s="2"/>
+      <c r="L98" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="5"/>
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
@@ -1958,9 +2261,13 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="5"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="5"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="5"/>
@@ -2121,10 +2428,18 @@
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E164" s="5"/>
     </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E165" s="5"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E166" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
   <si>
     <t xml:space="preserve">For Same Lambda</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Eigen Vector </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tf</t>
   </si>
   <si>
     <t xml:space="preserve">e^iH</t>
@@ -421,8 +424,8 @@
   </sheetPr>
   <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -496,18 +499,20 @@
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -544,14 +549,14 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="n">
@@ -559,7 +564,7 @@
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -579,10 +584,10 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="n">
@@ -590,7 +595,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -646,14 +651,14 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="n">
@@ -661,7 +666,7 @@
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -681,10 +686,10 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="n">
@@ -692,7 +697,7 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -748,14 +753,14 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="n">
@@ -763,7 +768,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -783,10 +788,10 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="n">
@@ -794,7 +799,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -850,14 +855,14 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="n">
@@ -865,7 +870,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -885,10 +890,10 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="n">
@@ -896,7 +901,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -952,14 +957,14 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="n">
@@ -967,7 +972,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -987,10 +992,10 @@
       <c r="E23" s="5"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="n">
@@ -998,7 +1003,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1054,14 +1059,14 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="n">
@@ -1069,7 +1074,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1089,10 +1094,10 @@
       <c r="E27" s="5"/>
       <c r="F27" s="2"/>
       <c r="G27" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="n">
@@ -1100,7 +1105,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1156,14 +1161,14 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="n">
@@ -1171,7 +1176,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -1191,10 +1196,10 @@
       <c r="E31" s="5"/>
       <c r="F31" s="2"/>
       <c r="G31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="n">
@@ -1202,7 +1207,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1258,7 +1263,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1323,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1365,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1407,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1449,7 +1454,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -1495,7 +1500,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -1541,7 +1546,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -1582,14 +1587,14 @@
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -1598,10 +1603,10 @@
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -1632,14 +1637,14 @@
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -1648,10 +1653,10 @@
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -1683,20 +1688,20 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J69" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,17 +1714,17 @@
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="G70" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J70" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,20 +1754,20 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J73" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1775,17 +1780,17 @@
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="G74" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J74" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,21 +1818,21 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J77" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1841,17 +1846,17 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J78" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,30 +1884,30 @@
         <v>2</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J81" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>0</v>
@@ -1911,17 +1916,17 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J82" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1946,52 +1951,52 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J85" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H86" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="J86" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2023,21 +2028,21 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J89" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2051,17 +2056,17 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H90" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="J90" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,21 +2098,21 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J93" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,17 +2126,17 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J94" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,20 +2165,20 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J97" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,17 +2192,17 @@
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="G98" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H98" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="J98" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
